--- a/StructureDefinition-ext-R5-Ingredient.xlsx
+++ b/StructureDefinition-ext-R5-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,8 @@
     <t>The product which this ingredient is a constituent part of.</t>
   </si>
   <si>
-    <t>Element `Ingredient.for` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Ingredient.for` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Ingredient.for` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:for.id</t>
@@ -685,6 +686,7 @@
   </si>
   <si>
     <t>Element `Ingredient.manufacturer.manufacturer` is part of an existing definition because parent element `Ingredient.manufacturer` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Ingredient.manufacturer.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Ingredient.manufacturer.manufacturer` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
@@ -821,7 +823,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:concept.id</t>
@@ -848,7 +850,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -1881,7 +1883,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="178.28515625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="203.31640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Ingredient.xlsx
+++ b/StructureDefinition-ext-R5-Ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -822,8 +822,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:concept.id</t>
@@ -850,8 +850,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:reference.id</t>

--- a/StructureDefinition-ext-R5-Ingredient.xlsx
+++ b/StructureDefinition-ext-R5-Ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,15 +408,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -452,7 +443,7 @@
     <t>Extension.extension:for.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-AdministrableProductDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-AdministrableProductDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic)
 </t>
   </si>
   <si>
@@ -490,7 +481,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ingredient-role-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-role-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:function</t>
@@ -523,7 +514,7 @@
     <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ingredient-function-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-function-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:group</t>
@@ -673,10 +664,13 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ingredient-manufacturer-role-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-manufacturer-role-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.extension:manufacturer</t>
@@ -702,7 +696,7 @@
     <t>Extension.extension:manufacturer.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -822,8 +816,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:concept.id</t>
@@ -850,8 +843,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:reference.id</t>
@@ -866,7 +858,7 @@
     <t>Extension.extension:substance.extension:code.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification)
 </t>
   </si>
   <si>
@@ -989,7 +981,7 @@
     <t>Extension.extension:substance.extension:strength.extension:presentation.extension:lowNumerator.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1286,12 +1278,6 @@
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:country.value[x]</t>
-  </si>
-  <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-country-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength</t>
@@ -1894,7 +1880,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.4765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2814,43 +2800,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2858,13 +2844,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2889,14 +2875,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2965,7 +2951,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -3068,7 +3054,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -3173,7 +3159,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -3216,7 +3202,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3278,7 +3264,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -3304,13 +3290,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3361,7 +3347,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3373,7 +3359,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3381,13 +3367,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3412,14 +3398,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3488,7 +3474,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3591,7 +3577,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3696,7 +3682,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3739,7 +3725,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3801,7 +3787,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3827,13 +3813,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3860,13 +3846,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3884,7 +3870,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3896,7 +3882,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3904,13 +3890,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3935,14 +3921,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4011,7 +3997,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4114,7 +4100,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4219,7 +4205,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4262,7 +4248,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4310,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4350,13 +4336,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4383,13 +4369,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4407,7 +4393,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4419,7 +4405,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4427,13 +4413,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4458,14 +4444,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4534,7 +4520,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4637,7 +4623,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4742,7 +4728,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4785,7 +4771,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4847,7 +4833,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4873,13 +4859,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4930,7 +4916,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4942,7 +4928,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4950,13 +4936,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4981,14 +4967,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5043,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5160,7 +5146,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5265,7 +5251,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5308,7 +5294,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5370,7 +5356,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5396,13 +5382,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5453,7 +5439,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5465,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -5473,13 +5459,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5504,14 +5490,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5580,7 +5566,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5683,7 +5669,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5788,7 +5774,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5831,7 +5817,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5893,7 +5879,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5919,13 +5905,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5976,7 +5962,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5988,7 +5974,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5996,13 +5982,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6027,14 +6013,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6103,7 +6089,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6206,7 +6192,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6309,13 +6295,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6340,14 +6326,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6416,10 +6402,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6519,10 +6505,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6624,10 +6610,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6667,7 +6653,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6729,10 +6715,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6758,10 +6744,10 @@
         <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6788,32 +6774,32 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6824,7 +6810,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6832,13 +6818,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6863,14 +6849,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6939,10 +6925,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7042,10 +7028,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7147,10 +7133,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7190,7 +7176,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7252,10 +7238,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7278,13 +7264,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7335,7 +7321,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7347,7 +7333,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7355,7 +7341,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7398,7 +7384,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7460,7 +7446,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7486,13 +7472,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7543,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7555,7 +7541,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -7563,13 +7549,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7594,14 +7580,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7670,7 +7656,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7773,7 +7759,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7876,13 +7862,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7907,14 +7893,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7983,10 +7969,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8086,10 +8072,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8189,13 +8175,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8220,10 +8206,10 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8294,10 +8280,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8397,10 +8383,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8502,10 +8488,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8545,7 +8531,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8593,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8636,13 +8622,13 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8650,7 +8636,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>77</v>
@@ -8692,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8704,7 +8690,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>121</v>
@@ -8712,13 +8698,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8743,14 +8729,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8819,10 +8805,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8922,10 +8908,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9027,10 +9013,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9070,7 +9056,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9132,10 +9118,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9158,13 +9144,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9215,7 +9201,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9227,7 +9213,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>121</v>
@@ -9235,13 +9221,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9266,14 +9252,14 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9342,10 +9328,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9445,10 +9431,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9550,10 +9536,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9593,7 +9579,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9655,10 +9641,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9681,13 +9667,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9738,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9750,7 +9736,7 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>121</v>
@@ -9758,10 +9744,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9801,7 +9787,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9863,10 +9849,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9889,13 +9875,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9946,7 +9932,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9958,7 +9944,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9966,13 +9952,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9997,14 +9983,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10073,10 +10059,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10176,10 +10162,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10279,13 +10265,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10310,14 +10296,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10386,10 +10372,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10489,10 +10475,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10592,13 +10578,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10623,10 +10609,10 @@
         <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10697,10 +10683,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10800,10 +10786,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10905,10 +10891,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10948,7 +10934,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -11010,10 +10996,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11039,13 +11025,13 @@
         <v>87</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11053,7 +11039,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11095,7 +11081,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11107,7 +11093,7 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>121</v>
@@ -11115,13 +11101,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
@@ -11146,16 +11132,16 @@
         <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11224,10 +11210,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11327,10 +11313,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11432,10 +11418,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11475,7 +11461,7 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -11537,10 +11523,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11563,16 +11549,16 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11622,7 +11608,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -11634,7 +11620,7 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>121</v>
@@ -11642,13 +11628,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
@@ -11673,16 +11659,16 @@
         <v>94</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -11751,10 +11737,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11854,10 +11840,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11959,10 +11945,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12002,7 +11988,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -12064,10 +12050,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12090,16 +12076,16 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12149,7 +12135,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12161,7 +12147,7 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>121</v>
@@ -12169,13 +12155,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>77</v>
@@ -12200,14 +12186,14 @@
         <v>94</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -12276,10 +12262,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12379,10 +12365,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12484,10 +12470,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12527,7 +12513,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>77</v>
@@ -12589,10 +12575,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12615,13 +12601,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12672,7 +12658,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -12684,7 +12670,7 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>121</v>
@@ -12692,10 +12678,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12735,7 +12721,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12797,10 +12783,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12823,13 +12809,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12880,7 +12866,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12892,7 +12878,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>121</v>
@@ -12900,13 +12886,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12931,14 +12917,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -13007,10 +12993,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13110,10 +13096,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13215,10 +13201,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13258,7 +13244,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13320,10 +13306,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13349,10 +13335,10 @@
         <v>87</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13403,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13415,7 +13401,7 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>121</v>
@@ -13423,13 +13409,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13454,14 +13440,14 @@
         <v>94</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13530,10 +13516,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13633,10 +13619,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13736,13 +13722,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -13767,10 +13753,10 @@
         <v>94</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13841,10 +13827,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13944,10 +13930,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14049,10 +14035,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14092,7 +14078,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -14154,10 +14140,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14183,13 +14169,13 @@
         <v>87</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -14197,7 +14183,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14239,7 +14225,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -14251,7 +14237,7 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>121</v>
@@ -14259,13 +14245,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -14290,16 +14276,16 @@
         <v>94</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -14368,10 +14354,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14471,10 +14457,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14576,10 +14562,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14619,7 +14605,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14681,10 +14667,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14707,16 +14693,16 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -14766,7 +14752,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -14778,7 +14764,7 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>121</v>
@@ -14786,13 +14772,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14817,16 +14803,16 @@
         <v>94</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -14895,10 +14881,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14998,10 +14984,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15103,10 +15089,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15146,7 +15132,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -15208,10 +15194,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15234,16 +15220,16 @@
         <v>77</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -15293,7 +15279,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -15305,7 +15291,7 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>121</v>
@@ -15313,13 +15299,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -15344,14 +15330,14 @@
         <v>94</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15420,10 +15406,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15523,10 +15509,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15628,10 +15614,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15671,7 +15657,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15733,10 +15719,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15759,13 +15745,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15816,7 +15802,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -15828,7 +15814,7 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>121</v>
@@ -15836,10 +15822,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15879,7 +15865,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15941,10 +15927,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15967,13 +15953,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16024,7 +16010,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -16036,7 +16022,7 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>121</v>
@@ -16044,13 +16030,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16075,14 +16061,14 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16151,10 +16137,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16254,10 +16240,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16359,10 +16345,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16402,7 +16388,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16464,10 +16450,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16493,10 +16479,10 @@
         <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16547,7 +16533,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16559,7 +16545,7 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>121</v>
@@ -16567,13 +16553,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16598,14 +16584,14 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16674,10 +16660,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16777,10 +16763,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16882,10 +16868,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16925,7 +16911,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16987,10 +16973,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17013,13 +16999,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17070,7 +17056,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -17082,7 +17068,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>121</v>
@@ -17090,13 +17076,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17121,14 +17107,14 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17197,10 +17183,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17300,10 +17286,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17405,10 +17391,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17448,7 +17434,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17510,10 +17496,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17539,10 +17525,10 @@
         <v>87</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17593,7 +17579,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17605,7 +17591,7 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>121</v>
@@ -17613,13 +17599,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17644,14 +17630,14 @@
         <v>94</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17720,10 +17706,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17823,10 +17809,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -17928,10 +17914,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17971,7 +17957,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18033,10 +18019,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18059,13 +18045,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18092,13 +18078,13 @@
         <v>77</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>77</v>
@@ -18116,7 +18102,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -18128,7 +18114,7 @@
         <v>77</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>121</v>
@@ -18136,13 +18122,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18167,14 +18153,14 @@
         <v>94</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18243,10 +18229,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18346,10 +18332,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18357,7 +18343,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>79</v>
@@ -18449,13 +18435,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -18480,14 +18466,14 @@
         <v>94</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>77</v>
@@ -18556,10 +18542,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18659,10 +18645,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18762,13 +18748,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>77</v>
@@ -18793,10 +18779,10 @@
         <v>94</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -18867,10 +18853,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -18970,10 +18956,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19075,10 +19061,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19118,7 +19104,7 @@
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>77</v>
@@ -19180,10 +19166,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19209,13 +19195,13 @@
         <v>87</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -19223,7 +19209,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19265,7 +19251,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -19277,7 +19263,7 @@
         <v>77</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>121</v>
@@ -19285,13 +19271,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>77</v>
@@ -19316,14 +19302,14 @@
         <v>94</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>77</v>
@@ -19392,10 +19378,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19495,10 +19481,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19600,10 +19586,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19643,7 +19629,7 @@
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>77</v>
@@ -19705,10 +19691,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -19731,13 +19717,13 @@
         <v>77</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -19788,7 +19774,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -19800,7 +19786,7 @@
         <v>77</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>121</v>
@@ -19808,13 +19794,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>77</v>
@@ -19839,14 +19825,14 @@
         <v>94</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>77</v>
@@ -19915,10 +19901,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20018,10 +20004,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20123,10 +20109,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20166,7 +20152,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20228,10 +20214,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20254,13 +20240,13 @@
         <v>77</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -20311,7 +20297,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -20323,7 +20309,7 @@
         <v>77</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>121</v>
@@ -20331,10 +20317,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20374,7 +20360,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>77</v>
@@ -20436,10 +20422,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20462,13 +20448,13 @@
         <v>77</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -20519,7 +20505,7 @@
         <v>77</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -20531,7 +20517,7 @@
         <v>77</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>121</v>
@@ -20539,13 +20525,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>77</v>
@@ -20570,14 +20556,14 @@
         <v>94</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>77</v>
@@ -20646,10 +20632,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20749,10 +20735,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20852,13 +20838,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>77</v>
@@ -20883,10 +20869,10 @@
         <v>94</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20957,10 +20943,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21060,10 +21046,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21165,10 +21151,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21208,7 +21194,7 @@
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>77</v>
@@ -21270,10 +21256,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21299,13 +21285,13 @@
         <v>87</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -21313,7 +21299,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21355,7 +21341,7 @@
         <v>77</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>78</v>
@@ -21367,7 +21353,7 @@
         <v>77</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>121</v>
@@ -21375,13 +21361,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>77</v>
@@ -21406,16 +21392,16 @@
         <v>94</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>77</v>
@@ -21484,10 +21470,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21587,10 +21573,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21692,10 +21678,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21735,7 +21721,7 @@
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S190" t="s" s="2">
         <v>77</v>
@@ -21797,10 +21783,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -21823,16 +21809,16 @@
         <v>77</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -21882,7 +21868,7 @@
         <v>77</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>78</v>
@@ -21894,7 +21880,7 @@
         <v>77</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>121</v>
@@ -21902,13 +21888,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D192" t="s" s="2">
         <v>77</v>
@@ -21933,16 +21919,16 @@
         <v>94</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>77</v>
@@ -22011,10 +21997,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22114,10 +22100,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22219,10 +22205,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22262,7 +22248,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>77</v>
@@ -22324,10 +22310,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22350,16 +22336,16 @@
         <v>77</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -22409,7 +22395,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -22421,7 +22407,7 @@
         <v>77</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>121</v>
@@ -22429,13 +22415,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>77</v>
@@ -22460,14 +22446,14 @@
         <v>94</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>77</v>
@@ -22536,10 +22522,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22639,10 +22625,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22744,10 +22730,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22787,7 +22773,7 @@
       </c>
       <c r="Q200" s="2"/>
       <c r="R200" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>77</v>
@@ -22849,10 +22835,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -22875,13 +22861,13 @@
         <v>77</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -22932,7 +22918,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -22944,7 +22930,7 @@
         <v>77</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>121</v>
@@ -22952,10 +22938,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -22995,7 +22981,7 @@
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>77</v>
@@ -23057,10 +23043,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23083,13 +23069,13 @@
         <v>77</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23140,7 +23126,7 @@
         <v>77</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -23152,7 +23138,7 @@
         <v>77</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>121</v>
@@ -23160,13 +23146,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>77</v>
@@ -23191,14 +23177,14 @@
         <v>94</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>77</v>
@@ -23267,10 +23253,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23370,10 +23356,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23475,10 +23461,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23518,7 +23504,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>77</v>
@@ -23580,10 +23566,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23609,10 +23595,10 @@
         <v>87</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -23663,7 +23649,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -23675,7 +23661,7 @@
         <v>77</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>121</v>
@@ -23683,13 +23669,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -23714,14 +23700,14 @@
         <v>94</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -23790,10 +23776,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -23893,10 +23879,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -23998,10 +23984,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24041,7 +24027,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>77</v>
@@ -24103,10 +24089,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24129,13 +24115,13 @@
         <v>77</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -24162,13 +24148,13 @@
         <v>77</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>77</v>
@@ -24186,7 +24172,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -24198,7 +24184,7 @@
         <v>77</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>121</v>
@@ -24206,10 +24192,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24249,7 +24235,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24311,10 +24297,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24337,13 +24323,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M215" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -24394,7 +24380,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -24406,7 +24392,7 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>121</v>
@@ -24414,10 +24400,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24457,7 +24443,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24519,10 +24505,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24545,13 +24531,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24602,7 +24588,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>78</v>
@@ -24614,7 +24600,7 @@
         <v>77</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>121</v>
@@ -24622,7 +24608,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>115</v>
@@ -24665,7 +24651,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24727,7 +24713,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>123</v>
@@ -24753,13 +24739,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -24810,7 +24796,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
@@ -24822,7 +24808,7 @@
         <v>77</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>121</v>
@@ -24935,10 +24921,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -24961,13 +24947,13 @@
         <v>77</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -25018,7 +25004,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -25030,7 +25016,7 @@
         <v>77</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>121</v>

--- a/StructureDefinition-ext-R5-Ingredient.xlsx
+++ b/StructureDefinition-ext-R5-Ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7296" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,6 +408,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -443,7 +452,7 @@
     <t>Extension.extension:for.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-AdministrableProductDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-AdministrableProductDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -481,7 +490,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-role-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-role-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:function</t>
@@ -514,7 +523,7 @@
     <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-function-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-function-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:group</t>
@@ -636,8 +645,7 @@
     <t>The way in which this manufacturer is associated with the ingredient. For example whether it is a possible one (others allowed), or an exclusive authorized one for this ingredient. Note that this is not the manufacturing process role.</t>
   </si>
   <si>
-    <t>Element `Ingredient.manufacturer.role` is part of an existing definition because parent element `Ingredient.manufacturer` requires a cross-version extension.
-Element `Ingredient.manufacturer.role` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.manufacturer.role` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.extension:role.id</t>
@@ -664,13 +672,10 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The way in which this manufacturer is associated with the ingredient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-manufacturer-role-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-ingredient-manufacturer-role-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.extension:manufacturer</t>
@@ -679,8 +684,7 @@
     <t>An organization that manufactures this ingredient.</t>
   </si>
   <si>
-    <t>Element `Ingredient.manufacturer.manufacturer` is part of an existing definition because parent element `Ingredient.manufacturer` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Ingredient.manufacturer.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Ingredient.manufacturer.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Ingredient.manufacturer.manufacturer` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
@@ -696,7 +700,7 @@
     <t>Extension.extension:manufacturer.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -749,8 +753,7 @@
     <t>A code or full resource that represents the ingredient's substance.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.code` is part of an existing definition because parent element `Ingredient.substance` requires a cross-version extension.
-Element `Ingredient.substance.code` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.code` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.id</t>
@@ -816,7 +819,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:concept.id</t>
@@ -843,7 +846,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:code.extension:reference.id</t>
@@ -858,7 +861,7 @@
     <t>Extension.extension:substance.extension:code.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1)
 </t>
   </si>
   <si>
@@ -880,8 +883,7 @@
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength` is part of an existing definition because parent element `Ingredient.substance` requires a cross-version extension.
-Element `Ingredient.substance.strength` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.id</t>
@@ -902,8 +904,7 @@
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. Unit of presentation refers to the quantity that the item occurs in e.g. a strength per tablet size, perhaps 'per 20mg' (the size of the tablet). It is not generally normalized as a unitary unit, which would be 'per mg').</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.presentation[x]` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.presentation[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.presentation[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:presentation.id</t>
@@ -981,7 +982,7 @@
     <t>Extension.extension:substance.extension:strength.extension:presentation.extension:lowNumerator.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1064,8 +1065,7 @@
     <t>A textual represention of either the whole of the presentation strength or a part of it - with the rest being in Strength.presentation as a ratio.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.textPresentation` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.textPresentation` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.textPresentation` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:textPresentation.id</t>
@@ -1092,8 +1092,7 @@
     <t>The strength per unitary volume (or mass).</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.concentration[x]` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.concentration[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.concentration[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:concentration.id</t>
@@ -1180,8 +1179,7 @@
     <t>A textual represention of either the whole of the concentration strength or a part of it - with the rest being in Strength.concentration as a ratio.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.textConcentration` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.textConcentration` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.textConcentration` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:textConcentration.id</t>
@@ -1208,8 +1206,7 @@
     <t>A code that indicates if the strength is, for example, based on the ingredient substance as stated or on the substance base (when the ingredient is a salt).</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.basis` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.basis` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.basis` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:basis.id</t>
@@ -1236,8 +1233,7 @@
     <t>For when strength is measured at a particular point or distance. There are products where strength is measured at a particular point. For example, the strength of the ingredient in some inhalers is measured at a particular position relative to the point of aerosolization.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.measurementPoint` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.measurementPoint` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.measurementPoint` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:measurementPoint.id</t>
@@ -1264,8 +1260,7 @@
     <t>The country or countries for which the strength range applies.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.country` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.country` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.country` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:country.id</t>
@@ -1292,8 +1287,7 @@
     <t>Strength expressed in terms of a reference substance. For when the ingredient strength is additionally expressed as equivalent to the strength of some other closely related substance (e.g. salt vs. base). Reference strength represents the strength (quantitative composition) of the active moiety of the active substance. There are situations when the active substance and active moiety are different, therefore both a strength and a reference strength are needed.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.referenceStrength` is part of an existing definition because parent element `Ingredient.substance.strength` requires a cross-version extension.
-Element `Ingredient.substance.strength.referenceStrength` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.referenceStrength` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.id</t>
@@ -1314,8 +1308,7 @@
     <t>Relevant reference substance.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.referenceStrength.substance` is part of an existing definition because parent element `Ingredient.substance.strength.referenceStrength` requires a cross-version extension.
-Element `Ingredient.substance.strength.referenceStrength.substance` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.referenceStrength.substance` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.extension:substance.id</t>
@@ -1393,8 +1386,7 @@
     <t>Strength expressed in terms of a reference substance.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.referenceStrength.strength[x]` is part of an existing definition because parent element `Ingredient.substance.strength.referenceStrength` requires a cross-version extension.
-Element `Ingredient.substance.strength.referenceStrength.strength[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.referenceStrength.strength[x]` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.extension:strength.id</t>
@@ -1479,8 +1471,7 @@
     <t>For when strength is measured at a particular point or distance.</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.referenceStrength.measurementPoint` is part of an existing definition because parent element `Ingredient.substance.strength.referenceStrength` requires a cross-version extension.
-Element `Ingredient.substance.strength.referenceStrength.measurementPoint` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.referenceStrength.measurementPoint` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.extension:measurementPoint.id</t>
@@ -1498,8 +1489,7 @@
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.extension:country</t>
   </si>
   <si>
-    <t>Element `Ingredient.substance.strength.referenceStrength.country` is part of an existing definition because parent element `Ingredient.substance.strength.referenceStrength` requires a cross-version extension.
-Element `Ingredient.substance.strength.referenceStrength.country` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
+    <t>Element `Ingredient.substance.strength.referenceStrength.country` is not mapped to FHIR R4, since FHIR R5 `Ingredient` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:substance.extension:strength.extension:referenceStrength.extension:country.id</t>
@@ -1880,7 +1870,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="92.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.39453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2800,13 +2790,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2824,7 +2814,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2836,7 +2826,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2844,13 +2834,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2875,14 +2865,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2951,7 +2941,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -3054,7 +3044,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -3159,7 +3149,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -3202,7 +3192,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3264,7 +3254,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -3290,13 +3280,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3347,7 +3337,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3359,7 +3349,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3367,13 +3357,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3398,14 +3388,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3474,7 +3464,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3577,7 +3567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3682,7 +3672,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3725,7 +3715,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3777,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3813,13 +3803,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3846,13 +3836,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3870,7 +3860,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3882,7 +3872,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3890,13 +3880,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3921,14 +3911,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3997,7 +3987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4100,7 +4090,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4205,7 +4195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4248,7 +4238,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4310,7 +4300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4336,13 +4326,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4369,13 +4359,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4393,7 +4383,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4405,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4413,13 +4403,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4444,14 +4434,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4520,7 +4510,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4623,7 +4613,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4728,7 +4718,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4771,7 +4761,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4833,7 +4823,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4859,13 +4849,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4916,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4928,7 +4918,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4936,13 +4926,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4967,14 +4957,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5043,7 +5033,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5146,7 +5136,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5251,7 +5241,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5294,7 +5284,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5356,7 +5346,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5382,13 +5372,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5439,7 +5429,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5451,7 +5441,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -5459,13 +5449,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5490,14 +5480,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5566,7 +5556,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5669,7 +5659,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5774,7 +5764,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5817,7 +5807,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5879,7 +5869,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5905,13 +5895,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5962,7 +5952,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5974,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5982,13 +5972,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6013,14 +6003,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6079,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6192,7 +6182,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6295,13 +6285,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6326,14 +6316,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6402,10 +6392,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6505,10 +6495,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6610,10 +6600,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6653,7 +6643,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6715,10 +6705,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6744,10 +6734,10 @@
         <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6774,13 +6764,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6798,7 +6788,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6810,7 +6800,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6818,13 +6808,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6849,14 +6839,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6925,10 +6915,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7028,10 +7018,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7133,10 +7123,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7176,7 +7166,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7238,10 +7228,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7264,13 +7254,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7321,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7333,7 +7323,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7341,7 +7331,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7384,7 +7374,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7446,7 +7436,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7472,13 +7462,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7529,7 +7519,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7541,7 +7531,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>121</v>
@@ -7549,13 +7539,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7580,14 +7570,14 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7656,7 +7646,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7759,7 +7749,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7862,13 +7852,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7893,14 +7883,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7969,10 +7959,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8072,10 +8062,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8175,13 +8165,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -8206,10 +8196,10 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8280,10 +8270,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8383,10 +8373,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8488,10 +8478,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8531,7 +8521,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8593,10 +8583,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8622,13 +8612,13 @@
         <v>87</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8636,7 +8626,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>77</v>
@@ -8678,7 +8668,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8690,7 +8680,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>121</v>
@@ -8698,13 +8688,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8729,14 +8719,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8805,10 +8795,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8908,10 +8898,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9013,10 +9003,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9056,7 +9046,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9118,10 +9108,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9144,13 +9134,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9201,7 +9191,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9213,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>121</v>
@@ -9221,13 +9211,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9252,14 +9242,14 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9328,10 +9318,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9431,10 +9421,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9536,10 +9526,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9579,7 +9569,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -9641,10 +9631,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9667,13 +9657,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9724,7 +9714,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9736,7 +9726,7 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>121</v>
@@ -9744,10 +9734,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9787,7 +9777,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9849,10 +9839,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9875,13 +9865,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9932,7 +9922,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9944,7 +9934,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9952,13 +9942,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9983,14 +9973,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10059,10 +10049,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10162,10 +10152,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10265,13 +10255,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -10296,14 +10286,14 @@
         <v>94</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10372,10 +10362,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10475,10 +10465,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10578,13 +10568,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10609,10 +10599,10 @@
         <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10683,10 +10673,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10786,10 +10776,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10891,10 +10881,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10934,7 +10924,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10996,10 +10986,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11025,13 +11015,13 @@
         <v>87</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11039,7 +11029,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11081,7 +11071,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11093,7 +11083,7 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>121</v>
@@ -11101,13 +11091,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
@@ -11132,16 +11122,16 @@
         <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11210,10 +11200,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11313,10 +11303,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11418,10 +11408,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11461,7 +11451,7 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -11523,10 +11513,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11549,16 +11539,16 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -11608,7 +11598,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -11620,7 +11610,7 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>121</v>
@@ -11628,13 +11618,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>77</v>
@@ -11659,16 +11649,16 @@
         <v>94</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -11737,10 +11727,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11840,10 +11830,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11945,10 +11935,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11988,7 +11978,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -12050,10 +12040,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12076,16 +12066,16 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12135,7 +12125,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12147,7 +12137,7 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>121</v>
@@ -12155,13 +12145,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>77</v>
@@ -12186,14 +12176,14 @@
         <v>94</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>77</v>
@@ -12262,10 +12252,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12365,10 +12355,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12470,10 +12460,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12513,7 +12503,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>77</v>
@@ -12575,10 +12565,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12601,13 +12591,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12658,7 +12648,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -12670,7 +12660,7 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>121</v>
@@ -12678,10 +12668,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12721,7 +12711,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -12783,10 +12773,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12809,13 +12799,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -12866,7 +12856,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -12878,7 +12868,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>121</v>
@@ -12886,13 +12876,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12917,14 +12907,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12993,10 +12983,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13096,10 +13086,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13201,10 +13191,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13244,7 +13234,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13306,10 +13296,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13335,10 +13325,10 @@
         <v>87</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13389,7 +13379,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13401,7 +13391,7 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>121</v>
@@ -13409,13 +13399,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13440,14 +13430,14 @@
         <v>94</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13516,10 +13506,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13619,10 +13609,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13722,13 +13712,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -13753,10 +13743,10 @@
         <v>94</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13827,10 +13817,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13930,10 +13920,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14035,10 +14025,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14078,7 +14068,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -14140,10 +14130,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14169,13 +14159,13 @@
         <v>87</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -14183,7 +14173,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14225,7 +14215,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -14237,7 +14227,7 @@
         <v>77</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>121</v>
@@ -14245,13 +14235,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>77</v>
@@ -14276,16 +14266,16 @@
         <v>94</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -14354,10 +14344,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14457,10 +14447,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14562,10 +14552,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14605,7 +14595,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>77</v>
@@ -14667,10 +14657,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14693,16 +14683,16 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -14752,7 +14742,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -14764,7 +14754,7 @@
         <v>77</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>121</v>
@@ -14772,13 +14762,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14803,16 +14793,16 @@
         <v>94</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -14881,10 +14871,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14984,10 +14974,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15089,10 +15079,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15132,7 +15122,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -15194,10 +15184,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -15220,16 +15210,16 @@
         <v>77</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -15279,7 +15269,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -15291,7 +15281,7 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>121</v>
@@ -15299,13 +15289,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -15330,14 +15320,14 @@
         <v>94</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15406,10 +15396,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15509,10 +15499,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15614,10 +15604,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15657,7 +15647,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15719,10 +15709,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15745,13 +15735,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15802,7 +15792,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -15814,7 +15804,7 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>121</v>
@@ -15822,10 +15812,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15865,7 +15855,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -15927,10 +15917,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15953,13 +15943,13 @@
         <v>77</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -16010,7 +16000,7 @@
         <v>77</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -16022,7 +16012,7 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>121</v>
@@ -16030,13 +16020,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16061,14 +16051,14 @@
         <v>94</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16137,10 +16127,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16240,10 +16230,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16345,10 +16335,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16388,7 +16378,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16450,10 +16440,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16479,10 +16469,10 @@
         <v>87</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16533,7 +16523,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16545,7 +16535,7 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>121</v>
@@ -16553,13 +16543,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16584,14 +16574,14 @@
         <v>94</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16660,10 +16650,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16763,10 +16753,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -16868,10 +16858,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16911,7 +16901,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -16973,10 +16963,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16999,13 +16989,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17056,7 +17046,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -17068,7 +17058,7 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>121</v>
@@ -17076,13 +17066,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>77</v>
@@ -17107,14 +17097,14 @@
         <v>94</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17183,10 +17173,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17286,10 +17276,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17391,10 +17381,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17434,7 +17424,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>77</v>
@@ -17496,10 +17486,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17525,10 +17515,10 @@
         <v>87</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17579,7 +17569,7 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -17591,7 +17581,7 @@
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>121</v>
@@ -17599,13 +17589,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17630,14 +17620,14 @@
         <v>94</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17706,10 +17696,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17809,10 +17799,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -17914,10 +17904,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -17957,7 +17947,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18019,10 +18009,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18045,13 +18035,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18102,7 +18092,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -18114,7 +18104,7 @@
         <v>77</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>121</v>
@@ -18122,13 +18112,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18153,14 +18143,14 @@
         <v>94</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18229,10 +18219,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18332,10 +18322,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18343,7 +18333,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>79</v>
@@ -18435,13 +18425,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -18466,14 +18456,14 @@
         <v>94</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>77</v>
@@ -18542,10 +18532,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18645,10 +18635,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18748,13 +18738,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>77</v>
@@ -18779,10 +18769,10 @@
         <v>94</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -18853,10 +18843,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -18956,10 +18946,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19061,10 +19051,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19104,7 +19094,7 @@
       </c>
       <c r="Q165" s="2"/>
       <c r="R165" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>77</v>
@@ -19166,10 +19156,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19195,13 +19185,13 @@
         <v>87</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -19209,7 +19199,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19251,7 +19241,7 @@
         <v>77</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -19263,7 +19253,7 @@
         <v>77</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>121</v>
@@ -19271,13 +19261,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>77</v>
@@ -19302,14 +19292,14 @@
         <v>94</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>77</v>
@@ -19378,10 +19368,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19481,10 +19471,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19586,10 +19576,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19629,7 +19619,7 @@
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>77</v>
@@ -19691,10 +19681,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -19717,13 +19707,13 @@
         <v>77</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -19774,7 +19764,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -19786,7 +19776,7 @@
         <v>77</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>121</v>
@@ -19794,13 +19784,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>77</v>
@@ -19825,14 +19815,14 @@
         <v>94</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>77</v>
@@ -19901,10 +19891,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20004,10 +19994,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20109,10 +20099,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20152,7 +20142,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20214,10 +20204,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20240,13 +20230,13 @@
         <v>77</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -20297,7 +20287,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -20309,7 +20299,7 @@
         <v>77</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>121</v>
@@ -20317,10 +20307,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20360,7 +20350,7 @@
       </c>
       <c r="Q177" s="2"/>
       <c r="R177" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>77</v>
@@ -20422,10 +20412,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20448,13 +20438,13 @@
         <v>77</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -20505,7 +20495,7 @@
         <v>77</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -20517,7 +20507,7 @@
         <v>77</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>121</v>
@@ -20525,13 +20515,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>77</v>
@@ -20556,14 +20546,14 @@
         <v>94</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>77</v>
@@ -20632,10 +20622,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20735,10 +20725,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20838,13 +20828,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>77</v>
@@ -20869,10 +20859,10 @@
         <v>94</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -20943,10 +20933,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21046,10 +21036,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21151,10 +21141,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21194,7 +21184,7 @@
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>77</v>
@@ -21256,10 +21246,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21285,13 +21275,13 @@
         <v>87</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -21299,7 +21289,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21341,7 +21331,7 @@
         <v>77</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>78</v>
@@ -21353,7 +21343,7 @@
         <v>77</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>121</v>
@@ -21361,13 +21351,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>77</v>
@@ -21392,16 +21382,16 @@
         <v>94</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>77</v>
@@ -21470,10 +21460,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21573,10 +21563,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21678,10 +21668,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21721,7 +21711,7 @@
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S190" t="s" s="2">
         <v>77</v>
@@ -21783,10 +21773,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -21809,16 +21799,16 @@
         <v>77</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -21868,7 +21858,7 @@
         <v>77</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>78</v>
@@ -21880,7 +21870,7 @@
         <v>77</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>121</v>
@@ -21888,13 +21878,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D192" t="s" s="2">
         <v>77</v>
@@ -21919,16 +21909,16 @@
         <v>94</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>77</v>
@@ -21997,10 +21987,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22100,10 +22090,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22205,10 +22195,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22248,7 +22238,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>77</v>
@@ -22310,10 +22300,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22336,16 +22326,16 @@
         <v>77</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -22395,7 +22385,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -22407,7 +22397,7 @@
         <v>77</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK196" t="s" s="2">
         <v>121</v>
@@ -22415,13 +22405,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>77</v>
@@ -22446,14 +22436,14 @@
         <v>94</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>77</v>
@@ -22522,10 +22512,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22625,10 +22615,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22730,10 +22720,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22773,7 +22763,7 @@
       </c>
       <c r="Q200" s="2"/>
       <c r="R200" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>77</v>
@@ -22835,10 +22825,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -22861,13 +22851,13 @@
         <v>77</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -22918,7 +22908,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -22930,7 +22920,7 @@
         <v>77</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>121</v>
@@ -22938,10 +22928,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -22981,7 +22971,7 @@
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>77</v>
@@ -23043,10 +23033,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23069,13 +23059,13 @@
         <v>77</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23126,7 +23116,7 @@
         <v>77</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -23138,7 +23128,7 @@
         <v>77</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>121</v>
@@ -23146,13 +23136,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>77</v>
@@ -23177,14 +23167,14 @@
         <v>94</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>77</v>
@@ -23253,10 +23243,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23356,10 +23346,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23461,10 +23451,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23504,7 +23494,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>77</v>
@@ -23566,10 +23556,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23595,10 +23585,10 @@
         <v>87</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -23649,7 +23639,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -23661,7 +23651,7 @@
         <v>77</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>121</v>
@@ -23669,13 +23659,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -23700,14 +23690,14 @@
         <v>94</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -23776,10 +23766,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -23879,10 +23869,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -23984,10 +23974,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24027,7 +24017,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>77</v>
@@ -24089,10 +24079,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24115,13 +24105,13 @@
         <v>77</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -24172,7 +24162,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -24184,7 +24174,7 @@
         <v>77</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>121</v>
@@ -24192,10 +24182,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24235,7 +24225,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>77</v>
@@ -24297,10 +24287,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24323,13 +24313,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -24380,7 +24370,7 @@
         <v>77</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -24392,7 +24382,7 @@
         <v>77</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>121</v>
@@ -24400,10 +24390,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24443,7 +24433,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24505,10 +24495,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24531,13 +24521,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24588,7 +24578,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>78</v>
@@ -24600,7 +24590,7 @@
         <v>77</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>121</v>
@@ -24608,7 +24598,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>115</v>
@@ -24651,7 +24641,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24713,7 +24703,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>123</v>
@@ -24739,13 +24729,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -24796,7 +24786,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
@@ -24808,7 +24798,7 @@
         <v>77</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>121</v>
@@ -24921,10 +24911,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -24947,13 +24937,13 @@
         <v>77</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -25004,7 +24994,7 @@
         <v>77</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -25016,7 +25006,7 @@
         <v>77</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>121</v>
